--- a/status/RC1_punchlist_v4.xlsx
+++ b/status/RC1_punchlist_v4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-80" windowWidth="26800" windowHeight="17100" tabRatio="500"/>
+    <workbookView xWindow="-560" yWindow="620" windowWidth="26800" windowHeight="17100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
